--- a/com.healthCare/src/test/resources/excel.xlsx
+++ b/com.healthCare/src/test/resources/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jishnu\eclipse-workspace\com.healthCare\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jishnu\git\HealthCareProject\com.healthCare\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350FABEE-B8EE-4EF4-B1BC-49BA08E0CCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2541011-A646-4BEB-AC54-3FFED25674F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2750" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>username</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Person name</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
     <t>Manuel</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>GG</t>
   </si>
   <si>
-    <t>Matt</t>
-  </si>
-  <si>
     <t>Com</t>
   </si>
   <si>
@@ -154,6 +148,9 @@
   </si>
   <si>
     <t>bp</t>
+  </si>
+  <si>
+    <t>Jacob</t>
   </si>
 </sst>
 </file>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,16 +540,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -560,19 +557,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -617,13 +614,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -634,13 +631,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -651,13 +648,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -719,18 +716,18 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>141</v>
@@ -738,7 +735,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>30</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -762,7 +759,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>60</v>
@@ -770,7 +767,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>90</v>
